--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Scott</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>TestCase Name</t>
   </si>
